--- a/Credits.xlsx
+++ b/Credits.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="223">
   <si>
     <t>Credit Name Table</t>
   </si>
@@ -387,9 +387,6 @@
     <t>No answer from the modder after a long time</t>
   </si>
   <si>
-    <t>No message sent yet</t>
-  </si>
-  <si>
     <t>Alan H</t>
   </si>
   <si>
@@ -411,27 +408,18 @@
     <t>Absence of information</t>
   </si>
   <si>
-    <t>Will be changed</t>
-  </si>
-  <si>
     <t>Error in the github credits</t>
   </si>
   <si>
     <t>Doubt (a verification is necessary)</t>
   </si>
   <si>
-    <t>PS : For contacting Danrell, talking to JFD should be the solution</t>
-  </si>
-  <si>
     <t>PS : There must be some errors of course in this table. Please be sure that I'm sorry if the name of a modder hasn't been presented in it yet. Don't forget to contact our team to signal any error.</t>
   </si>
   <si>
     <t>All accepted</t>
   </si>
   <si>
-    <t>PS : Contacting mikeburnfire (+ lyncoln-lyf) should be necessary in order for us to give all the correct name for the different elements used in the modmod (or at least to know what are the elements they produced themselves) : the indications in the credits of both mods aren't precise enough unfortunately</t>
-  </si>
-  <si>
     <t>Message sent recently/In wait of an answer</t>
   </si>
   <si>
@@ -451,6 +439,270 @@
   </si>
   <si>
     <t>Elia Bruzzone</t>
+  </si>
+  <si>
+    <t>Should be changed</t>
+  </si>
+  <si>
+    <t>Name of the UC</t>
+  </si>
+  <si>
+    <t>Ranch</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>Madrasa</t>
+  </si>
+  <si>
+    <t>Hashemite Raider</t>
+  </si>
+  <si>
+    <t>Lamassu Gate</t>
+  </si>
+  <si>
+    <t>Iron Chariot</t>
+  </si>
+  <si>
+    <t>Schützenstand</t>
+  </si>
+  <si>
+    <t>Landwehr</t>
+  </si>
+  <si>
+    <t>E-temenanki</t>
+  </si>
+  <si>
+    <t>Sabum Kibitium</t>
+  </si>
+  <si>
+    <t>Sambadrome</t>
+  </si>
+  <si>
+    <t>Pracinha</t>
+  </si>
+  <si>
+    <t>Hippodrome</t>
+  </si>
+  <si>
+    <t>Dromon</t>
+  </si>
+  <si>
+    <t>Tophet</t>
+  </si>
+  <si>
+    <t>Suffet</t>
+  </si>
+  <si>
+    <t>Examination Hall</t>
+  </si>
+  <si>
+    <t>Xiafan Guanjun</t>
+  </si>
+  <si>
+    <t>Longship</t>
+  </si>
+  <si>
+    <t>Andelsbevægelse</t>
+  </si>
+  <si>
+    <t>Nilometer</t>
+  </si>
+  <si>
+    <t>Kopesh</t>
+  </si>
+  <si>
+    <t>White Tower</t>
+  </si>
+  <si>
+    <t>Longbowman</t>
+  </si>
+  <si>
+    <t>Monolithic Church</t>
+  </si>
+  <si>
+    <t>Shotelai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grande École </t>
+  </si>
+  <si>
+    <t>SPAD S.VII</t>
+  </si>
+  <si>
+    <t>Teutonic Order</t>
+  </si>
+  <si>
+    <t>Slaganz</t>
+  </si>
+  <si>
+    <t>Agora</t>
+  </si>
+  <si>
+    <t>Klepht</t>
+  </si>
+  <si>
+    <t>Qila</t>
+  </si>
+  <si>
+    <t>Dhanurgraha</t>
+  </si>
+  <si>
+    <t>Kampong</t>
+  </si>
+  <si>
+    <t>Prau</t>
+  </si>
+  <si>
+    <t>Kabuki Theater</t>
+  </si>
+  <si>
+    <t>Yamato</t>
+  </si>
+  <si>
+    <t>Chaebol</t>
+  </si>
+  <si>
+    <t>Turtle Ship</t>
+  </si>
+  <si>
+    <t>Yassa Court</t>
+  </si>
+  <si>
+    <t>Black Tug</t>
+  </si>
+  <si>
+    <t>Riad</t>
+  </si>
+  <si>
+    <t>Corsair</t>
+  </si>
+  <si>
+    <t>Paradise Garden</t>
+  </si>
+  <si>
+    <t>Qizilbash</t>
+  </si>
+  <si>
+    <t>Barbican</t>
+  </si>
+  <si>
+    <t>Pancerny</t>
+  </si>
+  <si>
+    <t>Fale Tel'e</t>
+  </si>
+  <si>
+    <t>Koa</t>
+  </si>
+  <si>
+    <t>University of Coimbra</t>
+  </si>
+  <si>
+    <t>Cacadores</t>
+  </si>
+  <si>
+    <t>Latifundium</t>
+  </si>
+  <si>
+    <t>Ballista</t>
+  </si>
+  <si>
+    <t>Pogost</t>
+  </si>
+  <si>
+    <t>Licorne</t>
+  </si>
+  <si>
+    <t>Elephant Camp</t>
+  </si>
+  <si>
+    <t>Seir Morb</t>
+  </si>
+  <si>
+    <t>Qadi</t>
+  </si>
+  <si>
+    <t>Sofa</t>
+  </si>
+  <si>
+    <t>Hacienda</t>
+  </si>
+  <si>
+    <t>Armada</t>
+  </si>
+  <si>
+    <t>Hakkapeliitta</t>
+  </si>
+  <si>
+    <t>Bastu</t>
+  </si>
+  <si>
+    <t>Huey Teocalli</t>
+  </si>
+  <si>
+    <t>Eagle</t>
+  </si>
+  <si>
+    <t>Oppidum</t>
+  </si>
+  <si>
+    <t>Scythed Chariot</t>
+  </si>
+  <si>
+    <t>Alti Cur</t>
+  </si>
+  <si>
+    <t>Tarkhan</t>
+  </si>
+  <si>
+    <t>Intihuatana</t>
+  </si>
+  <si>
+    <t>Chasqui</t>
+  </si>
+  <si>
+    <t>Sachem's Council</t>
+  </si>
+  <si>
+    <t>Prowler</t>
+  </si>
+  <si>
+    <t>Ball Court</t>
+  </si>
+  <si>
+    <t>Holkan</t>
+  </si>
+  <si>
+    <t>Waag</t>
+  </si>
+  <si>
+    <t>Goedendag</t>
+  </si>
+  <si>
+    <t>Tersane</t>
+  </si>
+  <si>
+    <t>Great Bombard</t>
+  </si>
+  <si>
+    <t>Buffalo Pound</t>
+  </si>
+  <si>
+    <t>Yellow Brow</t>
+  </si>
+  <si>
+    <t>Iziko</t>
+  </si>
+  <si>
+    <t>inDuna</t>
+  </si>
+  <si>
+    <t>Laguna</t>
+  </si>
+  <si>
+    <t>Great Galleass(Firaxis)  / Fusta</t>
   </si>
 </sst>
 </file>
@@ -636,7 +888,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -680,6 +932,21 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -694,6 +961,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -709,8 +977,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1005,1566 +1271,1830 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S65"/>
+  <dimension ref="A1:U65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" customWidth="1"/>
+    <col min="7" max="7" width="28" style="46" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:21">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="59" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="59" t="s">
-        <v>136</v>
-      </c>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="59" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="71" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="72"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="61"/>
-      <c r="P1" t="s">
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="73"/>
+      <c r="R1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:21">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" s="56"/>
+      <c r="G2" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="M2" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="N2" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="O2" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="P2" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="P2" s="23"/>
-      <c r="Q2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="R2" s="23"/>
+      <c r="S2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="62"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="3"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="E3" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="64"/>
+      <c r="G3" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="H3" s="20"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="3"/>
+      <c r="R3" s="9"/>
+      <c r="S3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="1" t="s">
+      <c r="C4" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="32"/>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="32"/>
+      <c r="J4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I4" s="32"/>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="32"/>
+      <c r="L4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="3"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="M4" s="1"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="3"/>
+      <c r="R4" s="26"/>
+      <c r="S4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="E5" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="J5" s="42"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="3"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="F5" s="61"/>
+      <c r="G5" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="H5" s="19"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="42"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="3"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="46" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="3" t="s">
+      <c r="I6" s="32"/>
+      <c r="J6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="3"/>
-      <c r="P6" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="M6" s="1"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="3"/>
+      <c r="R6" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="S6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C7" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="57" t="s">
-        <v>138</v>
-      </c>
-      <c r="E7" s="56"/>
-      <c r="F7" s="1" t="s">
+      <c r="E7" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7" s="68"/>
+      <c r="G7" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="32"/>
-      <c r="H7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7" s="3" t="s">
+      <c r="I7" s="32"/>
+      <c r="J7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="3"/>
-      <c r="P7" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="3"/>
+      <c r="R7" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="S7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="51" t="s">
+      <c r="C8" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="50"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="F8" s="61"/>
+      <c r="G8" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="H8" s="20"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="50"/>
-      <c r="F9" s="1" t="s">
+      <c r="E9" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="61"/>
+      <c r="G9" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="32"/>
+      <c r="J9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="3"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="3"/>
       <c r="R9" s="31"/>
       <c r="S9" s="31"/>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="1" t="s">
+      <c r="C10" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="I10" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="3"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="3"/>
       <c r="R10" s="31"/>
       <c r="S10" s="31"/>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="T10" s="31"/>
+      <c r="U10" s="31"/>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="1" t="s">
+      <c r="C11" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="32"/>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="32"/>
+      <c r="J11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="L11" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="3"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="3"/>
       <c r="R11" s="31"/>
       <c r="S11" s="31"/>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="T11" s="31"/>
+      <c r="U11" s="31"/>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="32"/>
-      <c r="H12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="J12" s="3" t="s">
+      <c r="I12" s="32"/>
+      <c r="J12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L12" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="K12" s="1"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="3"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="3"/>
       <c r="R12" s="31"/>
       <c r="S12" s="31"/>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="T12" s="31"/>
+      <c r="U12" s="31"/>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="56"/>
-      <c r="F13" s="1" t="s">
+      <c r="C13" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" s="19"/>
+      <c r="E13" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="68"/>
+      <c r="G13" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="32"/>
-      <c r="H13" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="J13" s="12" t="s">
+      <c r="I13" s="32"/>
+      <c r="J13" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L13" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="K13" s="1"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="1"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N13" s="3"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
+      <c r="P13" s="3"/>
       <c r="R13" s="31"/>
       <c r="S13" s="31"/>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="T13" s="31"/>
+      <c r="U13" s="31"/>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C14" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="50"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="3"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
+      <c r="E14" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="61"/>
+      <c r="G14" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="H14" s="20"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="3"/>
       <c r="R14" s="31"/>
       <c r="S14" s="31"/>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="T14" s="31"/>
+      <c r="U14" s="31"/>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="49" t="s">
+      <c r="E15" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="E15" s="50"/>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="61"/>
+      <c r="G15" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G15" s="32"/>
-      <c r="H15" s="2" t="s">
+      <c r="I15" s="32"/>
+      <c r="J15" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I15" s="35"/>
-      <c r="J15" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="K15" s="1"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="K15" s="35"/>
+      <c r="L15" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="M15" s="1"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="3"/>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="51" t="s">
+      <c r="E16" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="E16" s="50"/>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="61"/>
+      <c r="G16" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="32"/>
-      <c r="H16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I16" s="35"/>
-      <c r="J16" s="3" t="s">
+      <c r="I16" s="32"/>
+      <c r="J16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K16" s="35"/>
+      <c r="L16" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="K16" s="1"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="M16" s="1"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="3"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="1" t="s">
+      <c r="C17" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G17" s="32"/>
-      <c r="H17" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J17" s="3" t="s">
+      <c r="I17" s="32"/>
+      <c r="J17" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L17" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="1"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="M17" s="1"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="3"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="E18" s="53"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="C18" s="50" t="s">
+        <v>167</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="63" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" s="65"/>
+      <c r="G18" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="H18" s="19"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="3"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="2" t="s">
+      <c r="C19" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="H19" s="19"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J19" s="3" t="s">
+      <c r="K19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L19" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="K19" s="1"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="M19" s="1"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="3"/>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="50" t="s">
+        <v>171</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D20" s="51" t="s">
+      <c r="E20" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="E20" s="50"/>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="61"/>
+      <c r="G20" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="32"/>
-      <c r="H20" s="2" t="s">
+      <c r="I20" s="32"/>
+      <c r="J20" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="K20" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J20" s="12" t="s">
+      <c r="L20" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="K20" s="1"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="M20" s="1"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="3"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="51" t="s">
+      <c r="C21" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="E21" s="50"/>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="61"/>
+      <c r="G21" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G21" s="32"/>
-      <c r="H21" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J21" s="12" t="s">
+      <c r="I21" s="32"/>
+      <c r="J21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L21" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="K21" s="1"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="M21" s="1"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="3"/>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="50" t="s">
+        <v>175</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="51" t="s">
+      <c r="E22" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="50"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="F22" s="61"/>
+      <c r="G22" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="56" t="s">
+      <c r="C23" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="D23" s="19"/>
+      <c r="E23" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="E23" s="56"/>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="68"/>
+      <c r="G23" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G23" s="32"/>
-      <c r="H23" s="2" t="s">
+      <c r="I23" s="32"/>
+      <c r="J23" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="I23" s="35"/>
-      <c r="J23" s="12" t="s">
+      <c r="K23" s="35"/>
+      <c r="L23" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="K23" s="1"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="M23" s="1"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="51" t="s">
+      <c r="E24" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="50"/>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="61"/>
+      <c r="G24" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G24" s="32"/>
-      <c r="H24" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="J24" s="12" t="s">
+      <c r="I24" s="32"/>
+      <c r="J24" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L24" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="K24" s="1"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="M24" s="1"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B25" s="3"/>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="51" t="s">
+      <c r="E25" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="50"/>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="61"/>
+      <c r="G25" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G25" s="32"/>
-      <c r="H25" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="J25" s="3" t="s">
+      <c r="I25" s="32"/>
+      <c r="J25" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L25" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="K25" s="14" t="s">
+      <c r="M25" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B26" s="3"/>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="51" t="s">
+      <c r="E26" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="50"/>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="61"/>
+      <c r="G26" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G26" s="32"/>
-      <c r="H26" s="11" t="s">
+      <c r="I26" s="32"/>
+      <c r="J26" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="I26" s="35"/>
-      <c r="J26" s="3" t="s">
+      <c r="K26" s="35"/>
+      <c r="L26" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="K26" s="14" t="s">
+      <c r="M26" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="L26" s="2" t="s">
+      <c r="N26" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="O26" s="2"/>
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B27" s="3"/>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="50" t="s">
+        <v>185</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D27" s="51" t="s">
+      <c r="E27" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="E27" s="50"/>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="61"/>
+      <c r="G27" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G27" s="32"/>
-      <c r="H27" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I27" s="35"/>
-      <c r="J27" s="3" t="s">
+      <c r="I27" s="32"/>
+      <c r="J27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K27" s="35"/>
+      <c r="L27" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="K27" s="14" t="s">
+      <c r="M27" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B28" s="3"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="39" t="s">
-        <v>50</v>
-      </c>
+      <c r="C28" s="50" t="s">
+        <v>187</v>
+      </c>
+      <c r="D28" s="19"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="H28" s="19"/>
       <c r="I28" s="32"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="J28" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="K28" s="32"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B29" s="3"/>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="50" t="s">
+        <v>189</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D29" s="49" t="s">
+      <c r="E29" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="E29" s="50"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="F29" s="61"/>
+      <c r="G29" s="50" t="s">
+        <v>190</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C30" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="51" t="s">
+      <c r="E30" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="E30" s="50"/>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="61"/>
+      <c r="G30" s="50" t="s">
+        <v>192</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G30" s="32"/>
-      <c r="H30" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="I30" s="35"/>
-      <c r="J30" s="3" t="s">
+      <c r="I30" s="32"/>
+      <c r="J30" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="K30" s="35"/>
+      <c r="L30" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="K30" s="1"/>
-      <c r="L30" s="2" t="s">
+      <c r="M30" s="1"/>
+      <c r="N30" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="O30" s="2"/>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B31" s="3"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
+      <c r="C31" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="D31" s="19"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="H31" s="19"/>
       <c r="I31" s="32"/>
-      <c r="J31" t="s">
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" t="s">
         <v>100</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="M31" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="1:14">
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B32" s="3"/>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D32" s="51" t="s">
+      <c r="E32" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="E32" s="50"/>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="61"/>
+      <c r="G32" s="50" t="s">
+        <v>196</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G32" s="32"/>
-      <c r="H32" s="2" t="s">
+      <c r="I32" s="32"/>
+      <c r="J32" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="K32" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="L32" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="K32" s="1"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="1:14">
+      <c r="M32" s="1"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B33" s="3"/>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D33" s="51" t="s">
+      <c r="E33" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="E33" s="50"/>
-      <c r="F33" t="s">
-        <v>104</v>
-      </c>
-      <c r="G33" s="32"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="50" t="s">
+        <v>198</v>
+      </c>
       <c r="H33" t="s">
         <v>104</v>
       </c>
-      <c r="I33" s="35"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="1:14">
+      <c r="I33" s="32"/>
+      <c r="J33" t="s">
+        <v>104</v>
+      </c>
+      <c r="K33" s="35"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C34" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="E34" s="50"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="1:14">
+      <c r="E34" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" s="61"/>
+      <c r="G34" s="50" t="s">
+        <v>199</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B35" s="3"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="52" t="s">
+      <c r="C35" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="D35" s="52"/>
+      <c r="E35" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="E35" s="62"/>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="64"/>
+      <c r="G35" s="49" t="s">
+        <v>202</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G35" s="32"/>
-      <c r="H35" s="18" t="s">
+      <c r="I35" s="32"/>
+      <c r="J35" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="I35" s="18" t="s">
+      <c r="K35" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="J35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K35" s="1"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="36" spans="1:14">
+      <c r="M35" s="1"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="3"/>
+    </row>
+    <row r="36" spans="1:16">
       <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B36" s="3"/>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="50" t="s">
+        <v>203</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="51" t="s">
+      <c r="E36" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="E36" s="50"/>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="61"/>
+      <c r="G36" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G36" s="32"/>
-      <c r="H36" s="2" t="s">
+      <c r="I36" s="32"/>
+      <c r="J36" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="I36" s="35"/>
-      <c r="J36" s="36" t="s">
+      <c r="K36" s="35"/>
+      <c r="L36" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="M36" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="L36" s="2" t="s">
+      <c r="N36" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="3"/>
-    </row>
-    <row r="37" spans="1:14">
+      <c r="O36" s="2"/>
+      <c r="P36" s="3"/>
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B37" s="3"/>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="50" t="s">
+        <v>205</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D37" s="51" t="s">
+      <c r="E37" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="E37" s="50"/>
-      <c r="F37" s="1" t="s">
+      <c r="F37" s="61"/>
+      <c r="G37" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G37" s="32"/>
-      <c r="H37" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J37" s="12" t="s">
+      <c r="I37" s="32"/>
+      <c r="J37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L37" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="K37" s="1"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="3"/>
-    </row>
-    <row r="38" spans="1:14">
+      <c r="M37" s="1"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="3"/>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B38" s="3"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="1" t="s">
+      <c r="C38" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="D38" s="19"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="50" t="s">
+        <v>208</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G38" s="32"/>
-      <c r="H38" s="11" t="s">
+      <c r="I38" s="32"/>
+      <c r="J38" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="K38" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="J38" s="3" t="s">
+      <c r="L38" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="K38" s="1"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="3"/>
-    </row>
-    <row r="39" spans="1:14">
+      <c r="M38" s="1"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="3"/>
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B39" s="3"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="1" t="s">
+      <c r="C39" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="D39" s="19"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G39" s="32"/>
-      <c r="H39" s="11" t="s">
+      <c r="I39" s="32"/>
+      <c r="J39" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="I39" s="35"/>
-      <c r="J39" s="12" t="s">
+      <c r="K39" s="35"/>
+      <c r="L39" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="K39" s="1"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="1:14">
+      <c r="M39" s="1"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="1:16">
       <c r="A40" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B40" s="3"/>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D40" s="49" t="s">
+      <c r="E40" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="50"/>
-      <c r="F40" s="1" t="s">
+      <c r="F40" s="61"/>
+      <c r="G40" s="50" t="s">
+        <v>212</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G40" s="32"/>
-      <c r="H40" s="2" t="s">
+      <c r="I40" s="32"/>
+      <c r="J40" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I40" s="41" t="s">
+      <c r="K40" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="J40" s="12" t="s">
+      <c r="L40" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="K40" s="1" t="s">
+      <c r="M40" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="1:14">
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="1:16">
       <c r="A41" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B41" s="3"/>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="50" t="s">
+        <v>213</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D41" s="51" t="s">
+      <c r="E41" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="E41" s="50"/>
-      <c r="F41" s="1" t="s">
+      <c r="F41" s="61"/>
+      <c r="G41" s="50" t="s">
+        <v>214</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G41" s="32"/>
-      <c r="H41" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I41" s="11" t="s">
+      <c r="I41" s="32"/>
+      <c r="J41" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K41" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="J41" s="40" t="s">
+      <c r="L41" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="K41" s="1"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="3" t="s">
+      <c r="M41" s="1"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:16">
       <c r="A42" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B42" s="3"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="51" t="s">
+      <c r="C42" s="50" t="s">
+        <v>215</v>
+      </c>
+      <c r="D42" s="19"/>
+      <c r="E42" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="E42" s="50"/>
-      <c r="F42" s="1" t="s">
+      <c r="F42" s="61"/>
+      <c r="G42" s="50" t="s">
+        <v>216</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G42" s="32"/>
-      <c r="H42" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="I42" s="35"/>
-      <c r="J42" s="3" t="s">
+      <c r="I42" s="32"/>
+      <c r="J42" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="K42" s="35"/>
+      <c r="L42" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="K42" s="1"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="1:14">
+      <c r="M42" s="1"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="1:16">
       <c r="A43" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B43" s="3"/>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="50" t="s">
+        <v>217</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D43" s="49" t="s">
+      <c r="E43" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="E43" s="50"/>
-      <c r="F43" s="1" t="s">
+      <c r="F43" s="61"/>
+      <c r="G43" s="50" t="s">
+        <v>218</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G43" s="32"/>
-      <c r="H43" t="s">
-        <v>71</v>
-      </c>
-      <c r="I43" s="37" t="s">
-        <v>71</v>
-      </c>
+      <c r="I43" s="32"/>
       <c r="J43" t="s">
         <v>71</v>
       </c>
-      <c r="K43" s="1"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="1:14">
+      <c r="K43" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="L43" t="s">
+        <v>71</v>
+      </c>
+      <c r="M43" s="1"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="1:16">
       <c r="A44" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B44" s="3"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="1" t="s">
+      <c r="C44" s="50" t="s">
+        <v>219</v>
+      </c>
+      <c r="D44" s="19"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="H44" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G44" s="32"/>
-      <c r="H44" s="2" t="s">
+      <c r="I44" s="32"/>
+      <c r="J44" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I44" s="2" t="s">
+      <c r="K44" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J44" s="3" t="s">
+      <c r="L44" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K44" s="1"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="1:14">
+      <c r="M44" s="1"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="1:16">
       <c r="A45" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B45" s="6"/>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="43" t="s">
+        <v>221</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D45" s="44" t="s">
+      <c r="E45" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="E45" s="45"/>
-      <c r="F45" s="4" t="s">
+      <c r="F45" s="56"/>
+      <c r="G45" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="H45" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G45" s="33"/>
-      <c r="H45" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J45" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K45" s="4"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="6"/>
-    </row>
-    <row r="47" spans="1:14">
-      <c r="A47" s="46" t="s">
+      <c r="I45" s="33"/>
+      <c r="J45" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M45" s="4"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="6"/>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="B47" s="46"/>
-      <c r="C47" s="46"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="46"/>
-      <c r="G47" t="s">
+      <c r="B47" s="57"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="45"/>
+      <c r="I47" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:16">
       <c r="A48" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>100</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>55</v>
       </c>
-      <c r="G48" s="24"/>
-      <c r="H48" t="s">
+      <c r="I48" s="24"/>
+      <c r="J48" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:10">
       <c r="A49" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>70</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>92</v>
       </c>
-      <c r="G49" s="25"/>
-      <c r="H49" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="I49" s="25"/>
+      <c r="J49" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C50" s="26" t="s">
+      <c r="D50" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>86</v>
       </c>
-      <c r="G50" s="26"/>
-      <c r="H50" t="s">
+      <c r="I50" s="26"/>
+      <c r="J50" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:10">
       <c r="A51" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="C51" s="26" t="s">
+      <c r="D51" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="E51" s="28" t="s">
+      <c r="F51" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="H51" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="G51" s="28"/>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="C52" s="26" t="s">
+      <c r="D52" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:10">
       <c r="A53" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>91</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
         <v>56</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="26" t="s">
+      <c r="F54" s="26" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="G54" s="26"/>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
         <v>65</v>
       </c>
-      <c r="C55" s="28" t="s">
+      <c r="D55" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="E55" s="26" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="F55" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="G55" s="26"/>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
         <v>80</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>109</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:10">
       <c r="A57" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>110</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:10">
       <c r="A58" t="s">
         <v>106</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>112</v>
       </c>
-      <c r="E58" s="28" t="s">
+      <c r="F58" s="28" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="G58" s="28"/>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
         <v>107</v>
       </c>
-      <c r="C59" s="28" t="s">
+      <c r="D59" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="E59" s="26" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="F59" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="G59" s="26"/>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" t="s">
         <v>63</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>85</v>
       </c>
-      <c r="E60" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="F60" s="43"/>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="F60" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="G60" s="54"/>
+      <c r="H60" s="54"/>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" t="s">
         <v>60</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>111</v>
       </c>
-      <c r="E61" s="28" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" t="s">
-        <v>128</v>
-      </c>
+      <c r="F61" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="G61" s="28"/>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="D1:F1"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>

--- a/Credits.xlsx
+++ b/Credits.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="225">
   <si>
     <t>Credit Name Table</t>
   </si>
@@ -501,9 +501,6 @@
     <t>Xiafan Guanjun</t>
   </si>
   <si>
-    <t>Longship</t>
-  </si>
-  <si>
     <t>Andelsbevægelse</t>
   </si>
   <si>
@@ -534,9 +531,6 @@
     <t>Teutonic Order</t>
   </si>
   <si>
-    <t>Slaganz</t>
-  </si>
-  <si>
     <t>Agora</t>
   </si>
   <si>
@@ -657,9 +651,6 @@
     <t>Tarkhan</t>
   </si>
   <si>
-    <t>Intihuatana</t>
-  </si>
-  <si>
     <t>Chasqui</t>
   </si>
   <si>
@@ -703,13 +694,28 @@
   </si>
   <si>
     <t>Great Galleass(Firaxis)  / Fusta</t>
+  </si>
+  <si>
+    <t>Ulfhedinn</t>
+  </si>
+  <si>
+    <t>Danrell/Leugi</t>
+  </si>
+  <si>
+    <t>Asterix Rage</t>
+  </si>
+  <si>
+    <t>Langskib</t>
+  </si>
+  <si>
+    <t>Qullqa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -888,7 +894,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -947,27 +953,8 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -977,17 +964,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1061,6 +1074,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1095,6 +1109,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1270,14 +1285,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
@@ -1295,36 +1310,36 @@
     <col min="16" max="16" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73"/>
+      <c r="B1" s="58"/>
       <c r="C1" s="51"/>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="73"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="58"/>
       <c r="G1" s="51"/>
-      <c r="H1" s="71" t="s">
+      <c r="H1" s="56" t="s">
         <v>132</v>
       </c>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="71" t="s">
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="73"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="58"/>
       <c r="R1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1337,10 +1352,10 @@
       <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="56"/>
+      <c r="F2" s="60"/>
       <c r="G2" s="43" t="s">
         <v>136</v>
       </c>
@@ -1376,7 +1391,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1401,8 +1416,10 @@
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
       <c r="L3" s="10"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="2"/>
+      <c r="M3" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="N3" s="54"/>
       <c r="O3" s="2"/>
       <c r="P3" s="3"/>
       <c r="R3" s="9"/>
@@ -1410,7 +1427,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1419,8 +1436,8 @@
         <v>139</v>
       </c>
       <c r="D4" s="19"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="67"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="66"/>
       <c r="G4" s="50" t="s">
         <v>140</v>
       </c>
@@ -1435,8 +1452,10 @@
       <c r="L4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="M4" s="1"/>
-      <c r="N4" s="2"/>
+      <c r="M4" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="N4" s="54"/>
       <c r="O4" s="2"/>
       <c r="P4" s="3"/>
       <c r="R4" s="26"/>
@@ -1444,7 +1463,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1455,10 +1474,10 @@
       <c r="D5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="62" t="s">
+      <c r="E5" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="61"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="50" t="s">
         <v>142</v>
       </c>
@@ -1469,8 +1488,10 @@
         <v>50</v>
       </c>
       <c r="L5" s="42"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="2"/>
+      <c r="M5" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="N5" s="54"/>
       <c r="O5" s="2"/>
       <c r="P5" s="3"/>
       <c r="R5" s="29"/>
@@ -1478,7 +1499,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1489,8 +1510,8 @@
         <v>143</v>
       </c>
       <c r="D6" s="19"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="59"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="50" t="s">
         <v>144</v>
       </c>
@@ -1507,8 +1528,10 @@
       <c r="L6" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="2"/>
+      <c r="M6" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="N6" s="54"/>
       <c r="O6" s="2"/>
       <c r="P6" s="3"/>
       <c r="R6" s="8" t="s">
@@ -1518,7 +1541,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1534,7 +1557,7 @@
       <c r="E7" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="F7" s="68"/>
+      <c r="F7" s="70"/>
       <c r="G7" s="50" t="s">
         <v>146</v>
       </c>
@@ -1552,9 +1575,9 @@
         <v>67</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="N7" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="N7" s="54"/>
       <c r="O7" s="2"/>
       <c r="P7" s="3"/>
       <c r="R7" s="30" t="s">
@@ -1564,7 +1587,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1573,10 +1596,10 @@
         <v>147</v>
       </c>
       <c r="D8" s="19"/>
-      <c r="E8" s="62" t="s">
+      <c r="E8" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="61"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="50" t="s">
         <v>148</v>
       </c>
@@ -1585,12 +1608,14 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
       <c r="L8" s="10"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="2"/>
+      <c r="M8" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="N8" s="54"/>
       <c r="O8" s="2"/>
       <c r="P8" s="3"/>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1601,10 +1626,10 @@
       <c r="D9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="70" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="61"/>
+      <c r="E9" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="62"/>
       <c r="G9" s="50" t="s">
         <v>150</v>
       </c>
@@ -1621,8 +1646,10 @@
       <c r="L9" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="M9" s="1"/>
-      <c r="N9" s="2"/>
+      <c r="M9" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="N9" s="54"/>
       <c r="O9" s="2"/>
       <c r="P9" s="3"/>
       <c r="R9" s="31"/>
@@ -1630,7 +1657,7 @@
       <c r="T9" s="31"/>
       <c r="U9" s="31"/>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1639,8 +1666,8 @@
         <v>151</v>
       </c>
       <c r="D10" s="19"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="59"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="68"/>
       <c r="G10" s="50" t="s">
         <v>152</v>
       </c>
@@ -1657,10 +1684,12 @@
         <v>50</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="M10" s="1"/>
-      <c r="N10" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="N10" s="54"/>
       <c r="O10" s="2"/>
       <c r="P10" s="3"/>
       <c r="R10" s="31"/>
@@ -1668,7 +1697,7 @@
       <c r="T10" s="31"/>
       <c r="U10" s="31"/>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -1677,8 +1706,8 @@
         <v>153</v>
       </c>
       <c r="D11" s="19"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="59"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="68"/>
       <c r="G11" s="50" t="s">
         <v>154</v>
       </c>
@@ -1695,8 +1724,10 @@
       <c r="L11" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="M11" s="1"/>
-      <c r="N11" s="2"/>
+      <c r="M11" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="N11" s="54"/>
       <c r="O11" s="2"/>
       <c r="P11" s="3"/>
       <c r="R11" s="31"/>
@@ -1704,21 +1735,21 @@
       <c r="T11" s="31"/>
       <c r="U11" s="31"/>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="55" t="s">
         <v>155</v>
       </c>
       <c r="D12" s="19"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="59"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="68"/>
       <c r="G12" s="50" t="s">
-        <v>156</v>
+        <v>223</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>57</v>
@@ -1733,8 +1764,10 @@
       <c r="L12" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="M12" s="1"/>
-      <c r="N12" s="2"/>
+      <c r="M12" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="N12" s="54"/>
       <c r="O12" s="2"/>
       <c r="P12" s="3"/>
       <c r="R12" s="31"/>
@@ -1742,21 +1775,21 @@
       <c r="T12" s="31"/>
       <c r="U12" s="31"/>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="50" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="68"/>
+      <c r="F13" s="70"/>
       <c r="G13" s="50" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>57</v>
@@ -1771,8 +1804,10 @@
       <c r="L13" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="M13" s="1"/>
-      <c r="N13" s="2"/>
+      <c r="M13" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="N13" s="54"/>
       <c r="O13" s="2" t="s">
         <v>51</v>
       </c>
@@ -1782,7 +1817,7 @@
       <c r="T13" s="31"/>
       <c r="U13" s="31"/>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -1790,25 +1825,27 @@
         <v>127</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="61"/>
+      <c r="E14" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="62"/>
       <c r="G14" s="50" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H14" s="20"/>
       <c r="I14" s="32"/>
       <c r="J14" s="13"/>
       <c r="K14" s="13"/>
       <c r="L14" s="10"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="2"/>
+      <c r="M14" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="N14" s="54"/>
       <c r="O14" s="2"/>
       <c r="P14" s="3"/>
       <c r="R14" s="31"/>
@@ -1816,23 +1853,23 @@
       <c r="T14" s="31"/>
       <c r="U14" s="31"/>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="50" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E15" s="60" t="s">
+      <c r="E15" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="F15" s="61"/>
+      <c r="F15" s="62"/>
       <c r="G15" s="50" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>76</v>
@@ -1845,28 +1882,30 @@
       <c r="L15" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="M15" s="1"/>
-      <c r="N15" s="2"/>
+      <c r="M15" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="N15" s="54"/>
       <c r="O15" s="2"/>
       <c r="P15" s="3"/>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="50" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E16" s="62" t="s">
+      <c r="E16" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="F16" s="61"/>
+      <c r="F16" s="62"/>
       <c r="G16" s="50" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>57</v>
@@ -1880,23 +1919,23 @@
         <v>67</v>
       </c>
       <c r="M16" s="1"/>
-      <c r="N16" s="2"/>
+      <c r="N16" s="54"/>
       <c r="O16" s="2"/>
       <c r="P16" s="3"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="50" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D17" s="19"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="59"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="68"/>
       <c r="G17" s="50" t="s">
-        <v>166</v>
+        <v>220</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>57</v>
@@ -1911,50 +1950,54 @@
       <c r="L17" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="M17" s="1"/>
-      <c r="N17" s="2"/>
+      <c r="M17" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="N17" s="54"/>
       <c r="O17" s="2"/>
       <c r="P17" s="3"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="50" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="F18" s="65"/>
+      <c r="F18" s="73"/>
       <c r="G18" s="49" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="32"/>
       <c r="J18" s="38"/>
       <c r="K18" s="38"/>
       <c r="L18" s="22"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="2"/>
+      <c r="M18" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="N18" s="54"/>
       <c r="O18" s="2"/>
       <c r="P18" s="3"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="50" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D19" s="20"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="67"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="66"/>
       <c r="G19" s="50" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="32"/>
@@ -1967,28 +2010,30 @@
       <c r="L19" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="M19" s="1"/>
-      <c r="N19" s="2"/>
+      <c r="M19" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="N19" s="54"/>
       <c r="O19" s="2"/>
       <c r="P19" s="3"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="50" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E20" s="62" t="s">
+      <c r="E20" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="F20" s="61"/>
+      <c r="F20" s="62"/>
       <c r="G20" s="50" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>51</v>
@@ -2003,26 +2048,28 @@
       <c r="L20" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="M20" s="1"/>
-      <c r="N20" s="2"/>
+      <c r="M20" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="N20" s="54"/>
       <c r="O20" s="2"/>
       <c r="P20" s="3"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="50" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D21" s="19"/>
-      <c r="E21" s="62" t="s">
+      <c r="E21" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="F21" s="61"/>
+      <c r="F21" s="62"/>
       <c r="G21" s="50" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>57</v>
@@ -2037,54 +2084,58 @@
       <c r="L21" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="M21" s="1"/>
-      <c r="N21" s="2"/>
+      <c r="M21" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="N21" s="54"/>
       <c r="O21" s="2"/>
       <c r="P21" s="3"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="50" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="62" t="s">
+      <c r="E22" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="F22" s="61"/>
+      <c r="F22" s="62"/>
       <c r="G22" s="50" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H22" s="20"/>
       <c r="I22" s="32"/>
       <c r="J22" s="13"/>
       <c r="K22" s="13"/>
       <c r="L22" s="10"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="2"/>
+      <c r="M22" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="N22" s="54"/>
       <c r="O22" s="2"/>
       <c r="P22" s="3"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="50" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D23" s="19"/>
-      <c r="E23" s="68" t="s">
+      <c r="E23" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="F23" s="68"/>
+      <c r="F23" s="70"/>
       <c r="G23" s="50" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>88</v>
@@ -2097,28 +2148,30 @@
       <c r="L23" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="M23" s="1"/>
-      <c r="N23" s="2"/>
+      <c r="M23" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="N23" s="54"/>
       <c r="O23" s="2"/>
       <c r="P23" s="3"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="50" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="62" t="s">
+      <c r="E24" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="F24" s="61"/>
+      <c r="F24" s="62"/>
       <c r="G24" s="50" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>88</v>
@@ -2133,28 +2186,30 @@
       <c r="L24" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="M24" s="1"/>
-      <c r="N24" s="2"/>
+      <c r="M24" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="N24" s="54"/>
       <c r="O24" s="2"/>
       <c r="P24" s="3"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="50" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="62" t="s">
+      <c r="E25" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="F25" s="61"/>
+      <c r="F25" s="62"/>
       <c r="G25" s="50" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>92</v>
@@ -2169,30 +2224,30 @@
       <c r="L25" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="M25" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="N25" s="2"/>
+      <c r="M25" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="N25" s="54"/>
       <c r="O25" s="2"/>
       <c r="P25" s="3"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="50" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="62" t="s">
+      <c r="E26" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="61"/>
+      <c r="F26" s="62"/>
       <c r="G26" s="50" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>65</v>
@@ -2205,32 +2260,30 @@
       <c r="L26" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="M26" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="M26" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="N26" s="54"/>
       <c r="O26" s="2"/>
       <c r="P26" s="3"/>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="50" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="62" t="s">
+      <c r="E27" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="F27" s="61"/>
+      <c r="F27" s="62"/>
       <c r="G27" s="50" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>93</v>
@@ -2243,26 +2296,26 @@
       <c r="L27" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="M27" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="N27" s="2"/>
+      <c r="M27" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="N27" s="54"/>
       <c r="O27" s="2"/>
       <c r="P27" s="3"/>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="50" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D28" s="19"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="59"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="68"/>
       <c r="G28" s="50" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="32"/>
@@ -2271,40 +2324,44 @@
       </c>
       <c r="K28" s="32"/>
       <c r="L28" s="34"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="2"/>
+      <c r="M28" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="N28" s="54"/>
       <c r="O28" s="2"/>
       <c r="P28" s="3"/>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="50" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E29" s="60" t="s">
+      <c r="E29" s="72" t="s">
         <v>97</v>
       </c>
-      <c r="F29" s="61"/>
+      <c r="F29" s="62"/>
       <c r="G29" s="50" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H29" s="20"/>
       <c r="I29" s="32"/>
       <c r="J29" s="13"/>
       <c r="K29" s="13"/>
       <c r="L29" s="10"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="2"/>
+      <c r="M29" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="N29" s="54"/>
       <c r="O29" s="21"/>
       <c r="P29" s="3"/>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>34</v>
       </c>
@@ -2312,17 +2369,17 @@
         <v>127</v>
       </c>
       <c r="C30" s="50" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="62" t="s">
+      <c r="E30" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="F30" s="61"/>
+      <c r="F30" s="62"/>
       <c r="G30" s="50" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>57</v>
@@ -2335,26 +2392,26 @@
       <c r="L30" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="M30" s="1"/>
-      <c r="N30" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="M30" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="N30" s="54"/>
       <c r="O30" s="2"/>
       <c r="P30" s="3"/>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="50" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D31" s="19"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="59"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="68"/>
       <c r="G31" s="50" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="32"/>
@@ -2364,29 +2421,29 @@
         <v>100</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="N31" s="54"/>
       <c r="O31" s="2"/>
       <c r="P31" s="3"/>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="50" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E32" s="62" t="s">
+      <c r="E32" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="F32" s="61"/>
+      <c r="F32" s="62"/>
       <c r="G32" s="50" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>63</v>
@@ -2401,28 +2458,30 @@
       <c r="L32" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="M32" s="1"/>
-      <c r="N32" s="2"/>
+      <c r="M32" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="N32" s="54"/>
       <c r="O32" s="2"/>
       <c r="P32" s="3"/>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="50" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E33" s="62" t="s">
+      <c r="E33" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="F33" s="61"/>
+      <c r="F33" s="62"/>
       <c r="G33" s="50" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H33" t="s">
         <v>104</v>
@@ -2433,12 +2492,14 @@
       </c>
       <c r="K33" s="35"/>
       <c r="L33" s="3"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="2"/>
+      <c r="M33" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="N33" s="54"/>
       <c r="O33" s="2"/>
       <c r="P33" s="3"/>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
@@ -2446,17 +2507,17 @@
         <v>127</v>
       </c>
       <c r="C34" s="50" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E34" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="F34" s="61"/>
+      <c r="E34" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" s="62"/>
       <c r="G34" s="50" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H34" s="20"/>
       <c r="I34" s="32"/>
@@ -2464,17 +2525,17 @@
       <c r="K34" s="13"/>
       <c r="L34" s="10"/>
       <c r="M34" s="1"/>
-      <c r="N34" s="2"/>
+      <c r="N34" s="54"/>
       <c r="O34" s="2"/>
       <c r="P34" s="3"/>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="50" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D35" s="52"/>
       <c r="E35" s="63" t="s">
@@ -2482,7 +2543,7 @@
       </c>
       <c r="F35" s="64"/>
       <c r="G35" s="49" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>59</v>
@@ -2497,28 +2558,30 @@
       <c r="L35" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="M35" s="1"/>
-      <c r="N35" s="2"/>
+      <c r="M35" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="N35" s="54"/>
       <c r="O35" s="2"/>
       <c r="P35" s="3"/>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="50" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="62" t="s">
+      <c r="E36" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="F36" s="61"/>
+      <c r="F36" s="62"/>
       <c r="G36" s="50" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>59</v>
@@ -2532,31 +2595,29 @@
         <v>78</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="N36" s="54"/>
       <c r="O36" s="2"/>
       <c r="P36" s="3"/>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="50" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E37" s="62" t="s">
+      <c r="E37" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="F37" s="61"/>
+      <c r="F37" s="62"/>
       <c r="G37" s="50" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>57</v>
@@ -2571,24 +2632,26 @@
       <c r="L37" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="M37" s="1"/>
-      <c r="N37" s="2"/>
+      <c r="M37" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="N37" s="54"/>
       <c r="O37" s="2"/>
       <c r="P37" s="3"/>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="50" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="D38" s="19"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="59"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="68"/>
       <c r="G38" s="50" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>80</v>
@@ -2603,24 +2666,28 @@
       <c r="L38" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="M38" s="1"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+      <c r="M38" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="N38" s="54"/>
+      <c r="O38" s="55" t="s">
+        <v>80</v>
+      </c>
       <c r="P38" s="3"/>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="50" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D39" s="19"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="59"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="68"/>
       <c r="G39" s="50" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>59</v>
@@ -2633,28 +2700,30 @@
       <c r="L39" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="M39" s="1"/>
-      <c r="N39" s="2"/>
+      <c r="M39" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="N39" s="54"/>
       <c r="O39" s="2"/>
       <c r="P39" s="3"/>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="50" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="60" t="s">
+      <c r="E40" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="F40" s="61"/>
+      <c r="F40" s="62"/>
       <c r="G40" s="50" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>51</v>
@@ -2670,29 +2739,29 @@
         <v>78</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="N40" s="54"/>
       <c r="O40" s="2"/>
       <c r="P40" s="3"/>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="50" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E41" s="62" t="s">
+      <c r="E41" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="F41" s="61"/>
+      <c r="F41" s="62"/>
       <c r="G41" s="50" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>89</v>
@@ -2707,28 +2776,30 @@
       <c r="L41" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="M41" s="1"/>
-      <c r="N41" s="2"/>
+      <c r="M41" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="N41" s="54"/>
       <c r="O41" s="2"/>
       <c r="P41" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="50" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D42" s="19"/>
-      <c r="E42" s="62" t="s">
+      <c r="E42" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="F42" s="61"/>
+      <c r="F42" s="62"/>
       <c r="G42" s="50" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>57</v>
@@ -2741,28 +2812,30 @@
       <c r="L42" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="M42" s="1"/>
-      <c r="N42" s="2"/>
+      <c r="M42" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="N42" s="54"/>
       <c r="O42" s="2"/>
       <c r="P42" s="3"/>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="50" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E43" s="60" t="s">
+      <c r="E43" s="72" t="s">
         <v>99</v>
       </c>
-      <c r="F43" s="61"/>
+      <c r="F43" s="62"/>
       <c r="G43" s="50" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>71</v>
@@ -2777,24 +2850,26 @@
       <c r="L43" t="s">
         <v>71</v>
       </c>
-      <c r="M43" s="1"/>
-      <c r="N43" s="2"/>
+      <c r="M43" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="N43" s="54"/>
       <c r="O43" s="2"/>
       <c r="P43" s="3"/>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="50" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D44" s="19"/>
-      <c r="E44" s="58"/>
-      <c r="F44" s="59"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="68"/>
       <c r="G44" s="50" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>51</v>
@@ -2809,28 +2884,30 @@
       <c r="L44" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M44" s="1"/>
-      <c r="N44" s="2"/>
+      <c r="M44" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="N44" s="54"/>
       <c r="O44" s="2"/>
       <c r="P44" s="3"/>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="43" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E45" s="55" t="s">
+      <c r="E45" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F45" s="56"/>
+      <c r="F45" s="60"/>
       <c r="G45" s="17" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>57</v>
@@ -2846,25 +2923,25 @@
         <v>50</v>
       </c>
       <c r="M45" s="4"/>
-      <c r="N45" s="5"/>
+      <c r="N45" s="54"/>
       <c r="O45" s="5"/>
       <c r="P45" s="6"/>
     </row>
-    <row r="47" spans="1:16">
-      <c r="A47" s="57" t="s">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="75" t="s">
         <v>105</v>
       </c>
-      <c r="B47" s="57"/>
-      <c r="C47" s="57"/>
-      <c r="D47" s="57"/>
-      <c r="E47" s="57"/>
-      <c r="F47" s="57"/>
+      <c r="B47" s="75"/>
+      <c r="C47" s="75"/>
+      <c r="D47" s="75"/>
+      <c r="E47" s="75"/>
+      <c r="F47" s="75"/>
       <c r="G47" s="45"/>
       <c r="I47" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="27" t="s">
         <v>57</v>
       </c>
@@ -2879,7 +2956,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="27" t="s">
         <v>50</v>
       </c>
@@ -2894,7 +2971,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="28" t="s">
         <v>51</v>
       </c>
@@ -2909,7 +2986,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="26" t="s">
         <v>62</v>
       </c>
@@ -2921,7 +2998,7 @@
       </c>
       <c r="G51" s="28"/>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="28" t="s">
         <v>71</v>
       </c>
@@ -2932,7 +3009,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="26" t="s">
         <v>99</v>
       </c>
@@ -2943,7 +3020,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -2955,7 +3032,7 @@
       </c>
       <c r="G54" s="26"/>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -2967,7 +3044,7 @@
       </c>
       <c r="G55" s="26"/>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>80</v>
       </c>
@@ -2978,7 +3055,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="26" t="s">
         <v>67</v>
       </c>
@@ -2989,7 +3066,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>106</v>
       </c>
@@ -3001,7 +3078,7 @@
       </c>
       <c r="G58" s="28"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>107</v>
       </c>
@@ -3013,20 +3090,20 @@
       </c>
       <c r="G59" s="26"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>63</v>
       </c>
       <c r="D60" t="s">
         <v>85</v>
       </c>
-      <c r="F60" s="54" t="s">
+      <c r="F60" s="74" t="s">
         <v>129</v>
       </c>
-      <c r="G60" s="54"/>
-      <c r="H60" s="54"/>
-    </row>
-    <row r="61" spans="1:10">
+      <c r="G60" s="74"/>
+      <c r="H60" s="74"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -3038,18 +3115,46 @@
       </c>
       <c r="G61" s="28"/>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>126</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
@@ -3062,39 +3167,11 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="F60:H60"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="M1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
@@ -3102,24 +3179,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Credits.xlsx
+++ b/Credits.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="227">
   <si>
     <t>Credit Name Table</t>
   </si>
@@ -507,9 +507,6 @@
     <t>Nilometer</t>
   </si>
   <si>
-    <t>Kopesh</t>
-  </si>
-  <si>
     <t>White Tower</t>
   </si>
   <si>
@@ -546,9 +543,6 @@
     <t>Kampong</t>
   </si>
   <si>
-    <t>Prau</t>
-  </si>
-  <si>
     <t>Kabuki Theater</t>
   </si>
   <si>
@@ -709,6 +703,18 @@
   </si>
   <si>
     <t>Qullqa</t>
+  </si>
+  <si>
+    <t>Mamluk</t>
+  </si>
+  <si>
+    <t>DarthStarKiller</t>
+  </si>
+  <si>
+    <t>Djong</t>
+  </si>
+  <si>
+    <t>Mikeburnfire</t>
   </si>
 </sst>
 </file>
@@ -894,7 +900,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -955,6 +961,30 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -962,27 +992,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1289,7 +1298,7 @@
   <dimension ref="A1:U65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1311,30 +1320,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
+      <c r="B1" s="78"/>
       <c r="C1" s="51"/>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="76" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="58"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="78"/>
       <c r="G1" s="51"/>
-      <c r="H1" s="56" t="s">
+      <c r="H1" s="76" t="s">
         <v>132</v>
       </c>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="56" t="s">
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="58"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="78"/>
       <c r="R1" t="s">
         <v>114</v>
       </c>
@@ -1352,10 +1361,10 @@
       <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="60"/>
+      <c r="F2" s="61"/>
       <c r="G2" s="43" t="s">
         <v>136</v>
       </c>
@@ -1404,10 +1413,10 @@
       <c r="D3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="64"/>
+      <c r="E3" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="69"/>
       <c r="G3" s="49" t="s">
         <v>138</v>
       </c>
@@ -1417,7 +1426,7 @@
       <c r="K3" s="13"/>
       <c r="L3" s="10"/>
       <c r="M3" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N3" s="54"/>
       <c r="O3" s="2"/>
@@ -1436,8 +1445,8 @@
         <v>139</v>
       </c>
       <c r="D4" s="19"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="66"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="72"/>
       <c r="G4" s="50" t="s">
         <v>140</v>
       </c>
@@ -1453,7 +1462,7 @@
         <v>55</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N4" s="54"/>
       <c r="O4" s="2"/>
@@ -1474,10 +1483,10 @@
       <c r="D5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="61" t="s">
+      <c r="E5" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="62"/>
+      <c r="F5" s="66"/>
       <c r="G5" s="50" t="s">
         <v>142</v>
       </c>
@@ -1489,7 +1498,7 @@
       </c>
       <c r="L5" s="42"/>
       <c r="M5" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N5" s="54"/>
       <c r="O5" s="2"/>
@@ -1510,8 +1519,8 @@
         <v>143</v>
       </c>
       <c r="D6" s="19"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="68"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="50" t="s">
         <v>144</v>
       </c>
@@ -1529,7 +1538,7 @@
         <v>58</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N6" s="54"/>
       <c r="O6" s="2"/>
@@ -1554,10 +1563,10 @@
       <c r="D7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="69" t="s">
+      <c r="E7" s="74" t="s">
         <v>134</v>
       </c>
-      <c r="F7" s="70"/>
+      <c r="F7" s="73"/>
       <c r="G7" s="50" t="s">
         <v>146</v>
       </c>
@@ -1575,7 +1584,7 @@
         <v>67</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N7" s="54"/>
       <c r="O7" s="2"/>
@@ -1596,10 +1605,10 @@
         <v>147</v>
       </c>
       <c r="D8" s="19"/>
-      <c r="E8" s="61" t="s">
+      <c r="E8" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="62"/>
+      <c r="F8" s="66"/>
       <c r="G8" s="50" t="s">
         <v>148</v>
       </c>
@@ -1609,7 +1618,7 @@
       <c r="K8" s="13"/>
       <c r="L8" s="10"/>
       <c r="M8" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N8" s="54"/>
       <c r="O8" s="2"/>
@@ -1626,10 +1635,10 @@
       <c r="D9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="71" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="62"/>
+      <c r="E9" s="75" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="66"/>
       <c r="G9" s="50" t="s">
         <v>150</v>
       </c>
@@ -1647,7 +1656,7 @@
         <v>66</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N9" s="54"/>
       <c r="O9" s="2"/>
@@ -1666,8 +1675,8 @@
         <v>151</v>
       </c>
       <c r="D10" s="19"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="68"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="64"/>
       <c r="G10" s="50" t="s">
         <v>152</v>
       </c>
@@ -1684,10 +1693,10 @@
         <v>50</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N10" s="54"/>
       <c r="O10" s="2"/>
@@ -1706,8 +1715,8 @@
         <v>153</v>
       </c>
       <c r="D11" s="19"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="68"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="64"/>
       <c r="G11" s="50" t="s">
         <v>154</v>
       </c>
@@ -1716,7 +1725,7 @@
       </c>
       <c r="I11" s="32"/>
       <c r="J11" s="2" t="s">
-        <v>51</v>
+        <v>224</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>51</v>
@@ -1725,7 +1734,7 @@
         <v>64</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N11" s="54"/>
       <c r="O11" s="2"/>
@@ -1746,10 +1755,10 @@
         <v>155</v>
       </c>
       <c r="D12" s="19"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="68"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="64"/>
       <c r="G12" s="50" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>57</v>
@@ -1765,7 +1774,7 @@
         <v>64</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N12" s="54"/>
       <c r="O12" s="2"/>
@@ -1784,28 +1793,28 @@
         <v>156</v>
       </c>
       <c r="D13" s="19"/>
-      <c r="E13" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="70"/>
+      <c r="E13" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="73"/>
       <c r="G13" s="50" t="s">
-        <v>157</v>
+        <v>223</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="I13" s="32"/>
-      <c r="J13" s="11" t="s">
-        <v>50</v>
+      <c r="J13" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="L13" s="12" t="s">
-        <v>67</v>
+        <v>80</v>
+      </c>
+      <c r="L13" s="58" t="s">
+        <v>80</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N13" s="54"/>
       <c r="O13" s="2" t="s">
@@ -1825,17 +1834,17 @@
         <v>127</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="61" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="62"/>
+      <c r="E14" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="66"/>
       <c r="G14" s="50" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H14" s="20"/>
       <c r="I14" s="32"/>
@@ -1843,7 +1852,7 @@
       <c r="K14" s="13"/>
       <c r="L14" s="10"/>
       <c r="M14" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N14" s="54"/>
       <c r="O14" s="2"/>
@@ -1859,17 +1868,17 @@
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="50" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E15" s="72" t="s">
+      <c r="E15" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="F15" s="62"/>
+      <c r="F15" s="66"/>
       <c r="G15" s="50" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>76</v>
@@ -1883,7 +1892,7 @@
         <v>133</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N15" s="54"/>
       <c r="O15" s="2"/>
@@ -1895,17 +1904,17 @@
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="50" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E16" s="61" t="s">
+      <c r="E16" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="F16" s="62"/>
+      <c r="F16" s="66"/>
       <c r="G16" s="50" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>57</v>
@@ -1929,13 +1938,13 @@
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="50" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D17" s="19"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="68"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="64"/>
       <c r="G17" s="50" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>57</v>
@@ -1951,7 +1960,7 @@
         <v>101</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N17" s="54"/>
       <c r="O17" s="2"/>
@@ -1963,15 +1972,15 @@
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" s="70"/>
+      <c r="G18" s="49" t="s">
         <v>165</v>
-      </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="63" t="s">
-        <v>118</v>
-      </c>
-      <c r="F18" s="73"/>
-      <c r="G18" s="49" t="s">
-        <v>166</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="32"/>
@@ -1979,7 +1988,7 @@
       <c r="K18" s="38"/>
       <c r="L18" s="22"/>
       <c r="M18" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N18" s="54"/>
       <c r="O18" s="2"/>
@@ -1991,13 +2000,13 @@
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="50" t="s">
         <v>167</v>
-      </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="50" t="s">
-        <v>168</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="32"/>
@@ -2011,7 +2020,7 @@
         <v>76</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N19" s="54"/>
       <c r="O19" s="2"/>
@@ -2023,33 +2032,33 @@
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E20" s="61" t="s">
+      <c r="E20" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="F20" s="62"/>
+      <c r="F20" s="66"/>
       <c r="G20" s="50" t="s">
-        <v>170</v>
+        <v>225</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I20" s="32"/>
       <c r="J20" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="L20" s="12" t="s">
-        <v>67</v>
+        <v>226</v>
+      </c>
+      <c r="K20" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="L20" s="57" t="s">
+        <v>64</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N20" s="54"/>
       <c r="O20" s="2"/>
@@ -2061,15 +2070,15 @@
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="50" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D21" s="19"/>
-      <c r="E21" s="61" t="s">
+      <c r="E21" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="F21" s="62"/>
+      <c r="F21" s="66"/>
       <c r="G21" s="50" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>57</v>
@@ -2085,7 +2094,7 @@
         <v>67</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N21" s="54"/>
       <c r="O21" s="2"/>
@@ -2097,17 +2106,17 @@
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="50" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="61" t="s">
+      <c r="E22" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="F22" s="62"/>
+      <c r="F22" s="66"/>
       <c r="G22" s="50" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H22" s="20"/>
       <c r="I22" s="32"/>
@@ -2115,7 +2124,7 @@
       <c r="K22" s="13"/>
       <c r="L22" s="10"/>
       <c r="M22" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N22" s="54"/>
       <c r="O22" s="2"/>
@@ -2127,15 +2136,15 @@
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="50" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D23" s="19"/>
-      <c r="E23" s="70" t="s">
+      <c r="E23" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="F23" s="70"/>
+      <c r="F23" s="73"/>
       <c r="G23" s="50" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>88</v>
@@ -2149,7 +2158,7 @@
         <v>67</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N23" s="54"/>
       <c r="O23" s="2"/>
@@ -2161,17 +2170,17 @@
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="50" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="61" t="s">
+      <c r="E24" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="F24" s="62"/>
+      <c r="F24" s="66"/>
       <c r="G24" s="50" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>88</v>
@@ -2187,7 +2196,7 @@
         <v>67</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N24" s="54"/>
       <c r="O24" s="2"/>
@@ -2199,17 +2208,17 @@
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="50" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="61" t="s">
+      <c r="E25" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="F25" s="62"/>
+      <c r="F25" s="66"/>
       <c r="G25" s="50" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>92</v>
@@ -2225,7 +2234,7 @@
         <v>64</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N25" s="54"/>
       <c r="O25" s="2"/>
@@ -2237,17 +2246,17 @@
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="50" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="61" t="s">
+      <c r="E26" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="62"/>
+      <c r="F26" s="66"/>
       <c r="G26" s="50" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>65</v>
@@ -2261,7 +2270,7 @@
         <v>65</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N26" s="54"/>
       <c r="O26" s="2"/>
@@ -2273,17 +2282,17 @@
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="50" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="61" t="s">
+      <c r="E27" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="F27" s="62"/>
+      <c r="F27" s="66"/>
       <c r="G27" s="50" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>93</v>
@@ -2297,7 +2306,7 @@
         <v>94</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N27" s="54"/>
       <c r="O27" s="2"/>
@@ -2309,13 +2318,13 @@
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="50" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D28" s="19"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="68"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="64"/>
       <c r="G28" s="50" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="32"/>
@@ -2325,7 +2334,7 @@
       <c r="K28" s="32"/>
       <c r="L28" s="34"/>
       <c r="M28" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N28" s="54"/>
       <c r="O28" s="2"/>
@@ -2337,17 +2346,17 @@
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="50" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E29" s="72" t="s">
+      <c r="E29" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="F29" s="62"/>
+      <c r="F29" s="66"/>
       <c r="G29" s="50" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H29" s="20"/>
       <c r="I29" s="32"/>
@@ -2355,7 +2364,7 @@
       <c r="K29" s="13"/>
       <c r="L29" s="10"/>
       <c r="M29" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N29" s="54"/>
       <c r="O29" s="21"/>
@@ -2369,17 +2378,17 @@
         <v>127</v>
       </c>
       <c r="C30" s="50" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="61" t="s">
+      <c r="E30" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="F30" s="62"/>
+      <c r="F30" s="66"/>
       <c r="G30" s="50" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>57</v>
@@ -2393,7 +2402,7 @@
         <v>64</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N30" s="54"/>
       <c r="O30" s="2"/>
@@ -2405,13 +2414,13 @@
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="50" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D31" s="19"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="68"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="64"/>
       <c r="G31" s="50" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="32"/>
@@ -2421,7 +2430,7 @@
         <v>100</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N31" s="54"/>
       <c r="O31" s="2"/>
@@ -2433,17 +2442,17 @@
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="50" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E32" s="61" t="s">
+      <c r="E32" s="67" t="s">
         <v>102</v>
       </c>
-      <c r="F32" s="62"/>
+      <c r="F32" s="66"/>
       <c r="G32" s="50" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>63</v>
@@ -2459,7 +2468,7 @@
         <v>101</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N32" s="54"/>
       <c r="O32" s="2"/>
@@ -2471,17 +2480,17 @@
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="50" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E33" s="61" t="s">
+      <c r="E33" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="F33" s="62"/>
+      <c r="F33" s="66"/>
       <c r="G33" s="50" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H33" t="s">
         <v>104</v>
@@ -2493,7 +2502,7 @@
       <c r="K33" s="35"/>
       <c r="L33" s="3"/>
       <c r="M33" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N33" s="54"/>
       <c r="O33" s="2"/>
@@ -2507,17 +2516,17 @@
         <v>127</v>
       </c>
       <c r="C34" s="50" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E34" s="61" t="s">
-        <v>50</v>
-      </c>
-      <c r="F34" s="62"/>
+      <c r="E34" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" s="66"/>
       <c r="G34" s="50" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H34" s="20"/>
       <c r="I34" s="32"/>
@@ -2535,15 +2544,15 @@
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="50" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D35" s="52"/>
-      <c r="E35" s="63" t="s">
+      <c r="E35" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="F35" s="64"/>
+      <c r="F35" s="69"/>
       <c r="G35" s="49" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>59</v>
@@ -2559,7 +2568,7 @@
         <v>61</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N35" s="54"/>
       <c r="O35" s="2"/>
@@ -2571,17 +2580,17 @@
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="50" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="61" t="s">
+      <c r="E36" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="F36" s="62"/>
+      <c r="F36" s="66"/>
       <c r="G36" s="50" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>59</v>
@@ -2595,7 +2604,7 @@
         <v>78</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N36" s="54"/>
       <c r="O36" s="2"/>
@@ -2607,17 +2616,17 @@
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="50" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E37" s="61" t="s">
+      <c r="E37" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="F37" s="62"/>
+      <c r="F37" s="66"/>
       <c r="G37" s="50" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>57</v>
@@ -2633,7 +2642,7 @@
         <v>78</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N37" s="54"/>
       <c r="O37" s="2"/>
@@ -2645,13 +2654,13 @@
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="50" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D38" s="19"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="68"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="64"/>
       <c r="G38" s="50" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>80</v>
@@ -2667,7 +2676,7 @@
         <v>60</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N38" s="54"/>
       <c r="O38" s="55" t="s">
@@ -2681,13 +2690,13 @@
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="50" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D39" s="19"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="68"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="64"/>
       <c r="G39" s="50" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>59</v>
@@ -2701,7 +2710,7 @@
         <v>84</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N39" s="54"/>
       <c r="O39" s="2"/>
@@ -2713,17 +2722,17 @@
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="50" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="72" t="s">
+      <c r="E40" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="F40" s="62"/>
+      <c r="F40" s="66"/>
       <c r="G40" s="50" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>51</v>
@@ -2739,7 +2748,7 @@
         <v>78</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N40" s="54"/>
       <c r="O40" s="2"/>
@@ -2751,17 +2760,17 @@
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="50" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E41" s="61" t="s">
+      <c r="E41" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="F41" s="62"/>
+      <c r="F41" s="66"/>
       <c r="G41" s="50" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>89</v>
@@ -2777,7 +2786,7 @@
         <v>78</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N41" s="54"/>
       <c r="O41" s="2"/>
@@ -2791,15 +2800,15 @@
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="50" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D42" s="19"/>
-      <c r="E42" s="61" t="s">
+      <c r="E42" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="F42" s="62"/>
+      <c r="F42" s="66"/>
       <c r="G42" s="50" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>57</v>
@@ -2813,7 +2822,7 @@
         <v>80</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N42" s="54"/>
       <c r="O42" s="2"/>
@@ -2825,17 +2834,17 @@
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="50" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E43" s="72" t="s">
+      <c r="E43" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="F43" s="62"/>
+      <c r="F43" s="66"/>
       <c r="G43" s="50" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>71</v>
@@ -2851,7 +2860,7 @@
         <v>71</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N43" s="54"/>
       <c r="O43" s="2"/>
@@ -2863,13 +2872,13 @@
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="50" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D44" s="19"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="68"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="64"/>
       <c r="G44" s="50" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>51</v>
@@ -2885,7 +2894,7 @@
         <v>51</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N44" s="54"/>
       <c r="O44" s="2"/>
@@ -2897,17 +2906,17 @@
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="43" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E45" s="59" t="s">
+      <c r="E45" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F45" s="60"/>
+      <c r="F45" s="61"/>
       <c r="G45" s="17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>57</v>
@@ -2928,14 +2937,14 @@
       <c r="P45" s="6"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="75" t="s">
+      <c r="A47" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="B47" s="75"/>
-      <c r="C47" s="75"/>
-      <c r="D47" s="75"/>
-      <c r="E47" s="75"/>
-      <c r="F47" s="75"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="62"/>
       <c r="G47" s="45"/>
       <c r="I47" t="s">
         <v>114</v>
@@ -3097,11 +3106,11 @@
       <c r="D60" t="s">
         <v>85</v>
       </c>
-      <c r="F60" s="74" t="s">
+      <c r="F60" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="G60" s="74"/>
-      <c r="H60" s="74"/>
+      <c r="G60" s="59"/>
+      <c r="H60" s="59"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
@@ -3122,15 +3131,35 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="F60:H60"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="E28:F28"/>
@@ -3143,35 +3172,15 @@
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>

--- a/Credits.xlsx
+++ b/Credits.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="227">
   <si>
     <t>Credit Name Table</t>
   </si>
@@ -453,9 +453,6 @@
     <t>Monitor</t>
   </si>
   <si>
-    <t>Madrasa</t>
-  </si>
-  <si>
     <t>Hashemite Raider</t>
   </si>
   <si>
@@ -715,6 +712,9 @@
   </si>
   <si>
     <t>Mikeburnfire</t>
+  </si>
+  <si>
+    <t>Bimaristan</t>
   </si>
 </sst>
 </file>
@@ -964,27 +964,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -992,6 +971,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1298,7 +1298,7 @@
   <dimension ref="A1:U65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="E7" sqref="E7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1320,30 +1320,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78"/>
+      <c r="B1" s="61"/>
       <c r="C1" s="51"/>
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="77"/>
-      <c r="F1" s="78"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="61"/>
       <c r="G1" s="51"/>
-      <c r="H1" s="76" t="s">
+      <c r="H1" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="76" t="s">
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="78"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="61"/>
       <c r="R1" t="s">
         <v>114</v>
       </c>
@@ -1361,10 +1361,10 @@
       <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="60" t="s">
+      <c r="E2" s="62" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="61"/>
+      <c r="F2" s="63"/>
       <c r="G2" s="43" t="s">
         <v>136</v>
       </c>
@@ -1413,10 +1413,10 @@
       <c r="D3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="69"/>
+      <c r="E3" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="67"/>
       <c r="G3" s="49" t="s">
         <v>138</v>
       </c>
@@ -1426,7 +1426,7 @@
       <c r="K3" s="13"/>
       <c r="L3" s="10"/>
       <c r="M3" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N3" s="54"/>
       <c r="O3" s="2"/>
@@ -1442,13 +1442,17 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="72" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="73"/>
+      <c r="G4" s="50" t="s">
         <v>139</v>
-      </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="50" t="s">
-        <v>140</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>53</v>
@@ -1462,7 +1466,7 @@
         <v>55</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N4" s="54"/>
       <c r="O4" s="2"/>
@@ -1478,17 +1482,17 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="50" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="67" t="s">
+      <c r="E5" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="66"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="32"/>
@@ -1498,7 +1502,7 @@
       </c>
       <c r="L5" s="42"/>
       <c r="M5" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N5" s="54"/>
       <c r="O5" s="2"/>
@@ -1516,13 +1520,13 @@
         <v>127</v>
       </c>
       <c r="C6" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="50" t="s">
         <v>143</v>
-      </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="50" t="s">
-        <v>144</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>57</v>
@@ -1538,7 +1542,7 @@
         <v>58</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N6" s="54"/>
       <c r="O6" s="2"/>
@@ -1558,17 +1562,17 @@
         <v>127</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="74" t="s">
+      <c r="E7" s="72" t="s">
         <v>134</v>
       </c>
       <c r="F7" s="73"/>
       <c r="G7" s="50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>57</v>
@@ -1584,7 +1588,7 @@
         <v>67</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N7" s="54"/>
       <c r="O7" s="2"/>
@@ -1602,15 +1606,15 @@
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="65"/>
+      <c r="G8" s="50" t="s">
         <v>147</v>
-      </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="66"/>
-      <c r="G8" s="50" t="s">
-        <v>148</v>
       </c>
       <c r="H8" s="20"/>
       <c r="I8" s="32"/>
@@ -1618,7 +1622,7 @@
       <c r="K8" s="13"/>
       <c r="L8" s="10"/>
       <c r="M8" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N8" s="54"/>
       <c r="O8" s="2"/>
@@ -1630,17 +1634,17 @@
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="50" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="75" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="66"/>
+      <c r="E9" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="65"/>
       <c r="G9" s="50" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>65</v>
@@ -1656,7 +1660,7 @@
         <v>66</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N9" s="54"/>
       <c r="O9" s="2"/>
@@ -1672,13 +1676,13 @@
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="50" t="s">
         <v>151</v>
-      </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="50" t="s">
-        <v>152</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>57</v>
@@ -1693,10 +1697,10 @@
         <v>50</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N10" s="54"/>
       <c r="O10" s="2"/>
@@ -1712,20 +1716,20 @@
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="50" t="s">
         <v>153</v>
-      </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="50" t="s">
-        <v>154</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I11" s="32"/>
       <c r="J11" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>51</v>
@@ -1734,7 +1738,7 @@
         <v>64</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N11" s="54"/>
       <c r="O11" s="2"/>
@@ -1752,13 +1756,13 @@
         <v>127</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D12" s="19"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="64"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="71"/>
       <c r="G12" s="50" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>57</v>
@@ -1774,7 +1778,7 @@
         <v>64</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N12" s="54"/>
       <c r="O12" s="2"/>
@@ -1790,15 +1794,15 @@
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="50" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D13" s="19"/>
-      <c r="E13" s="74" t="s">
+      <c r="E13" s="72" t="s">
         <v>50</v>
       </c>
       <c r="F13" s="73"/>
       <c r="G13" s="50" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>71</v>
@@ -1814,7 +1818,7 @@
         <v>80</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N13" s="54"/>
       <c r="O13" s="2" t="s">
@@ -1834,17 +1838,17 @@
         <v>127</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="67" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="66"/>
+      <c r="E14" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="65"/>
       <c r="G14" s="50" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H14" s="20"/>
       <c r="I14" s="32"/>
@@ -1852,7 +1856,7 @@
       <c r="K14" s="13"/>
       <c r="L14" s="10"/>
       <c r="M14" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N14" s="54"/>
       <c r="O14" s="2"/>
@@ -1868,17 +1872,17 @@
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="50" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E15" s="65" t="s">
+      <c r="E15" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="F15" s="66"/>
+      <c r="F15" s="65"/>
       <c r="G15" s="50" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>76</v>
@@ -1892,7 +1896,7 @@
         <v>133</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N15" s="54"/>
       <c r="O15" s="2"/>
@@ -1904,17 +1908,17 @@
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="50" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E16" s="67" t="s">
+      <c r="E16" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="F16" s="66"/>
+      <c r="F16" s="65"/>
       <c r="G16" s="50" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>57</v>
@@ -1938,13 +1942,13 @@
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="50" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D17" s="19"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="64"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="71"/>
       <c r="G17" s="50" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>57</v>
@@ -1960,7 +1964,7 @@
         <v>101</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N17" s="54"/>
       <c r="O17" s="2"/>
@@ -1972,15 +1976,15 @@
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="66" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" s="76"/>
+      <c r="G18" s="49" t="s">
         <v>164</v>
-      </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="68" t="s">
-        <v>118</v>
-      </c>
-      <c r="F18" s="70"/>
-      <c r="G18" s="49" t="s">
-        <v>165</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="32"/>
@@ -1988,7 +1992,7 @@
       <c r="K18" s="38"/>
       <c r="L18" s="22"/>
       <c r="M18" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N18" s="54"/>
       <c r="O18" s="2"/>
@@ -2000,13 +2004,13 @@
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="50" t="s">
         <v>166</v>
-      </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="50" t="s">
-        <v>167</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="32"/>
@@ -2020,7 +2024,7 @@
         <v>76</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N19" s="54"/>
       <c r="O19" s="2"/>
@@ -2032,24 +2036,24 @@
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="50" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E20" s="67" t="s">
+      <c r="E20" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="F20" s="66"/>
+      <c r="F20" s="65"/>
       <c r="G20" s="50" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I20" s="32"/>
       <c r="J20" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K20" s="56" t="s">
         <v>88</v>
@@ -2058,7 +2062,7 @@
         <v>64</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N20" s="54"/>
       <c r="O20" s="2"/>
@@ -2070,15 +2074,15 @@
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="65"/>
+      <c r="G21" s="50" t="s">
         <v>169</v>
-      </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="67" t="s">
-        <v>85</v>
-      </c>
-      <c r="F21" s="66"/>
-      <c r="G21" s="50" t="s">
-        <v>170</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>57</v>
@@ -2094,7 +2098,7 @@
         <v>67</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N21" s="54"/>
       <c r="O21" s="2"/>
@@ -2106,17 +2110,17 @@
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="67" t="s">
+      <c r="E22" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="F22" s="66"/>
+      <c r="F22" s="65"/>
       <c r="G22" s="50" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H22" s="20"/>
       <c r="I22" s="32"/>
@@ -2124,7 +2128,7 @@
       <c r="K22" s="13"/>
       <c r="L22" s="10"/>
       <c r="M22" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N22" s="54"/>
       <c r="O22" s="2"/>
@@ -2136,7 +2140,7 @@
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="50" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="73" t="s">
@@ -2144,7 +2148,7 @@
       </c>
       <c r="F23" s="73"/>
       <c r="G23" s="50" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>88</v>
@@ -2158,7 +2162,7 @@
         <v>67</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N23" s="54"/>
       <c r="O23" s="2"/>
@@ -2170,17 +2174,17 @@
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="50" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="67" t="s">
+      <c r="E24" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="F24" s="66"/>
+      <c r="F24" s="65"/>
       <c r="G24" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>88</v>
@@ -2196,7 +2200,7 @@
         <v>67</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N24" s="54"/>
       <c r="O24" s="2"/>
@@ -2208,17 +2212,17 @@
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="50" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="67" t="s">
+      <c r="E25" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="F25" s="66"/>
+      <c r="F25" s="65"/>
       <c r="G25" s="50" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>92</v>
@@ -2234,7 +2238,7 @@
         <v>64</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N25" s="54"/>
       <c r="O25" s="2"/>
@@ -2246,17 +2250,17 @@
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="50" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="67" t="s">
+      <c r="E26" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="66"/>
+      <c r="F26" s="65"/>
       <c r="G26" s="50" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>65</v>
@@ -2270,7 +2274,7 @@
         <v>65</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N26" s="54"/>
       <c r="O26" s="2"/>
@@ -2282,17 +2286,17 @@
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="50" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="67" t="s">
+      <c r="E27" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="F27" s="66"/>
+      <c r="F27" s="65"/>
       <c r="G27" s="50" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>93</v>
@@ -2306,7 +2310,7 @@
         <v>94</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N27" s="54"/>
       <c r="O27" s="2"/>
@@ -2318,13 +2322,13 @@
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="D28" s="19"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="50" t="s">
         <v>183</v>
-      </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="50" t="s">
-        <v>184</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="32"/>
@@ -2334,7 +2338,7 @@
       <c r="K28" s="32"/>
       <c r="L28" s="34"/>
       <c r="M28" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N28" s="54"/>
       <c r="O28" s="2"/>
@@ -2346,17 +2350,17 @@
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="50" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E29" s="65" t="s">
+      <c r="E29" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="F29" s="66"/>
+      <c r="F29" s="65"/>
       <c r="G29" s="50" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H29" s="20"/>
       <c r="I29" s="32"/>
@@ -2364,7 +2368,7 @@
       <c r="K29" s="13"/>
       <c r="L29" s="10"/>
       <c r="M29" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N29" s="54"/>
       <c r="O29" s="21"/>
@@ -2378,17 +2382,17 @@
         <v>127</v>
       </c>
       <c r="C30" s="50" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="67" t="s">
+      <c r="E30" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="F30" s="66"/>
+      <c r="F30" s="65"/>
       <c r="G30" s="50" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>57</v>
@@ -2402,7 +2406,7 @@
         <v>64</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N30" s="54"/>
       <c r="O30" s="2"/>
@@ -2414,13 +2418,13 @@
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="D31" s="19"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="50" t="s">
         <v>189</v>
-      </c>
-      <c r="D31" s="19"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="50" t="s">
-        <v>190</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="32"/>
@@ -2430,7 +2434,7 @@
         <v>100</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N31" s="54"/>
       <c r="O31" s="2"/>
@@ -2442,17 +2446,17 @@
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="50" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E32" s="67" t="s">
+      <c r="E32" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="F32" s="66"/>
+      <c r="F32" s="65"/>
       <c r="G32" s="50" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>63</v>
@@ -2468,7 +2472,7 @@
         <v>101</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N32" s="54"/>
       <c r="O32" s="2"/>
@@ -2480,17 +2484,17 @@
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="50" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E33" s="67" t="s">
+      <c r="E33" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="F33" s="66"/>
+      <c r="F33" s="65"/>
       <c r="G33" s="50" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H33" t="s">
         <v>104</v>
@@ -2502,7 +2506,7 @@
       <c r="K33" s="35"/>
       <c r="L33" s="3"/>
       <c r="M33" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N33" s="54"/>
       <c r="O33" s="2"/>
@@ -2516,17 +2520,17 @@
         <v>127</v>
       </c>
       <c r="C34" s="50" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E34" s="67" t="s">
-        <v>50</v>
-      </c>
-      <c r="F34" s="66"/>
+      <c r="E34" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" s="65"/>
       <c r="G34" s="50" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H34" s="20"/>
       <c r="I34" s="32"/>
@@ -2544,15 +2548,15 @@
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="50" t="s">
+        <v>196</v>
+      </c>
+      <c r="D35" s="52"/>
+      <c r="E35" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="F35" s="67"/>
+      <c r="G35" s="49" t="s">
         <v>197</v>
-      </c>
-      <c r="D35" s="52"/>
-      <c r="E35" s="68" t="s">
-        <v>71</v>
-      </c>
-      <c r="F35" s="69"/>
-      <c r="G35" s="49" t="s">
-        <v>198</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>59</v>
@@ -2568,7 +2572,7 @@
         <v>61</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N35" s="54"/>
       <c r="O35" s="2"/>
@@ -2580,17 +2584,17 @@
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="50" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="67" t="s">
+      <c r="E36" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="F36" s="66"/>
+      <c r="F36" s="65"/>
       <c r="G36" s="50" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>59</v>
@@ -2604,7 +2608,7 @@
         <v>78</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N36" s="54"/>
       <c r="O36" s="2"/>
@@ -2616,17 +2620,17 @@
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="50" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E37" s="67" t="s">
+      <c r="E37" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="F37" s="66"/>
+      <c r="F37" s="65"/>
       <c r="G37" s="50" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>57</v>
@@ -2642,7 +2646,7 @@
         <v>78</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N37" s="54"/>
       <c r="O37" s="2"/>
@@ -2654,13 +2658,13 @@
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="50" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D38" s="19"/>
-      <c r="E38" s="63"/>
-      <c r="F38" s="64"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="71"/>
       <c r="G38" s="50" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>80</v>
@@ -2676,7 +2680,7 @@
         <v>60</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N38" s="54"/>
       <c r="O38" s="55" t="s">
@@ -2690,13 +2694,13 @@
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="50" t="s">
+        <v>203</v>
+      </c>
+      <c r="D39" s="19"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="71"/>
+      <c r="G39" s="50" t="s">
         <v>204</v>
-      </c>
-      <c r="D39" s="19"/>
-      <c r="E39" s="63"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="50" t="s">
-        <v>205</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>59</v>
@@ -2710,7 +2714,7 @@
         <v>84</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N39" s="54"/>
       <c r="O39" s="2"/>
@@ -2722,17 +2726,17 @@
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="50" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="65" t="s">
+      <c r="E40" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="F40" s="66"/>
+      <c r="F40" s="65"/>
       <c r="G40" s="50" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>51</v>
@@ -2748,7 +2752,7 @@
         <v>78</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N40" s="54"/>
       <c r="O40" s="2"/>
@@ -2760,17 +2764,17 @@
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="50" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E41" s="67" t="s">
+      <c r="E41" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="F41" s="66"/>
+      <c r="F41" s="65"/>
       <c r="G41" s="50" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>89</v>
@@ -2786,7 +2790,7 @@
         <v>78</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N41" s="54"/>
       <c r="O41" s="2"/>
@@ -2800,15 +2804,15 @@
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="D42" s="19"/>
+      <c r="E42" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="F42" s="65"/>
+      <c r="G42" s="50" t="s">
         <v>210</v>
-      </c>
-      <c r="D42" s="19"/>
-      <c r="E42" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="F42" s="66"/>
-      <c r="G42" s="50" t="s">
-        <v>211</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>57</v>
@@ -2822,7 +2826,7 @@
         <v>80</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N42" s="54"/>
       <c r="O42" s="2"/>
@@ -2834,17 +2838,17 @@
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="50" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E43" s="65" t="s">
+      <c r="E43" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="F43" s="66"/>
+      <c r="F43" s="65"/>
       <c r="G43" s="50" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>71</v>
@@ -2860,7 +2864,7 @@
         <v>71</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N43" s="54"/>
       <c r="O43" s="2"/>
@@ -2872,13 +2876,13 @@
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="50" t="s">
+        <v>213</v>
+      </c>
+      <c r="D44" s="19"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="50" t="s">
         <v>214</v>
-      </c>
-      <c r="D44" s="19"/>
-      <c r="E44" s="63"/>
-      <c r="F44" s="64"/>
-      <c r="G44" s="50" t="s">
-        <v>215</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>51</v>
@@ -2894,7 +2898,7 @@
         <v>51</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N44" s="54"/>
       <c r="O44" s="2"/>
@@ -2906,17 +2910,17 @@
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="43" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E45" s="60" t="s">
+      <c r="E45" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="F45" s="61"/>
+      <c r="F45" s="63"/>
       <c r="G45" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>57</v>
@@ -2937,14 +2941,14 @@
       <c r="P45" s="6"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="62" t="s">
+      <c r="A47" s="78" t="s">
         <v>105</v>
       </c>
-      <c r="B47" s="62"/>
-      <c r="C47" s="62"/>
-      <c r="D47" s="62"/>
-      <c r="E47" s="62"/>
-      <c r="F47" s="62"/>
+      <c r="B47" s="78"/>
+      <c r="C47" s="78"/>
+      <c r="D47" s="78"/>
+      <c r="E47" s="78"/>
+      <c r="F47" s="78"/>
       <c r="G47" s="45"/>
       <c r="I47" t="s">
         <v>114</v>
@@ -3106,11 +3110,11 @@
       <c r="D60" t="s">
         <v>85</v>
       </c>
-      <c r="F60" s="59" t="s">
+      <c r="F60" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="G60" s="59"/>
-      <c r="H60" s="59"/>
+      <c r="G60" s="77"/>
+      <c r="H60" s="77"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
@@ -3131,11 +3135,39 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
@@ -3148,39 +3180,11 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="F60:H60"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="M1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
